--- a/similarities/split_global/harmonic_similarity_timestamps_74.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_74.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,186 +484,202 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A#:maj', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:maj', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+          <t>('0:01:02.280000', '0:01:04.320000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:00:07.580000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=68.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=62.28</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=7.58</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:04.514625', '0:01:32.970680')]</t>
+          <t>('0:02:04.920000', '0:02:09.320000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=64.514625']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['D:7', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Eb/3']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+          <t>('0:00:44.160000', '0:00:46.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:03.120000', '0:01:09.420000')]</t>
+          <t>('0:00:26.006000', '0:00:29.321000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=44.16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=63.12']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min', 'B:7/A', 'E:min/G']]</t>
+          <t>['D#:min/A#', 'A#', 'D#:min/A#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:21')]</t>
+          <t>('0:00:49.280000', '0:00:53.940000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:12.140000', '0:00:23.020000')]</t>
+          <t>('0:00:13.980000', '0:00:21.500000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=13.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -672,406 +688,432 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A:min', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:41.140000', '0:00:53.020000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:07.980000', '0:00:10.540000')]</t>
+          <t>('0:00:22.080000', '0:00:29.360000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=41.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=7.98']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=22.08</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:min', 'C', 'F:min', 'F:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min', 'B:7/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:11.890000', '0:00:19.531000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:11.160000', '0:00:16.920000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=11.89</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>isophonics_269</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['A:min', 'E', 'A:min', 'E', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'C:min', 'G/3']]</t>
+          <t>['F:min', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:06.480000', '0:00:13.420000')]</t>
+          <t>('0:00:38.841000', '0:00:45.884000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:15.565442', '0:00:19.466394')]</t>
+          <t>('0:00:00.600000', '0:00:08.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=6.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=38.841</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=15.565442']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=0.6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_252</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['F/A', 'C:7/G', 'F/A']]</t>
+          <t>['C:min', 'G:maj', 'C:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:03:56.400000', '0:04:02.100000'), ('0:04:12.800000', '0:04:14.460000')]</t>
+          <t>('0:00:07.523000', '0:00:10.397000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:15.530000', '0:00:16.900000'), ('0:01:43.710000', '0:01:49.060000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=236.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=252.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=15.53', 'https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=103.71']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj'], ['E:maj/B', 'B:maj', 'B:7', 'E:maj/B']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E'], ['A', 'E', 'E:7', 'A']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:55.580000', '0:01:06.200000'), ('0:02:08.580000', '0:02:23.820000')]</t>
+          <t>('0:00:16.560000', '0:00:39.040000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:50.260000'), ('0:00:00.522000', '0:00:07.205000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=55.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=128.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=0.522']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['E:7', 'A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000')]</t>
+          <t>('0:00:10.240000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:00:24.760000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_152</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G#/C', 'D#:7/A#', 'G#/C']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:44.200000', '0:00:45.920000')]</t>
+          <t>('0:00:31.600000', '0:00:33.800000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:32.200000', '0:00:36.200000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=44.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-152#t=31.6</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=32.2</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>isophonics_21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['Db', 'Db:min', 'Ab']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.340000', '0:00:04.840000'), ('0:00:07.700000', '0:00:12.060000')]</t>
+          <t>('0:00:38.588000', '0:00:43.202000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000'), ('0:02:09.060000', '0:02:14.200000')]</t>
+          <t>('0:00:48.450000', '0:00:52.970000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=7.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=38.588</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=48.45</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:40.380000', '0:00:42.280000')]</t>
+          <t>('0:01:14.700000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:20.480000', '0:02:25.980000')]</t>
+          <t>('0:00:16.340000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=74.7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=16.34</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1080,94 +1122,104 @@
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_119</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+          <t>('0:00:45.720000', '0:00:54.380000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:15.260000', '0:00:45.460000')]</t>
+          <t>('0:00:07.400000', '0:00:18.960000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-119#t=34.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=15.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:32.180000', '0:00:34.740000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:07.525011', '0:00:12.935260')]</t>
+          <t>('0:00:12.960000', '0:00:17.700000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=32.18</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-251#t=7.525011']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=12.96</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
